--- a/data/pca/factorExposure/factorExposure_2009-09-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-09-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01719662860113178</v>
+        <v>0.01666540482422551</v>
       </c>
       <c r="C2">
-        <v>0.001739938454951736</v>
+        <v>-0.0008625977357832092</v>
       </c>
       <c r="D2">
-        <v>-0.0006806820734286894</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009045562361793902</v>
+      </c>
+      <c r="E2">
+        <v>0.001692998062689605</v>
+      </c>
+      <c r="F2">
+        <v>0.01254529799040142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09736676447690411</v>
+        <v>0.09388931337050418</v>
       </c>
       <c r="C4">
-        <v>0.02145907818038285</v>
+        <v>-0.0144613836870707</v>
       </c>
       <c r="D4">
-        <v>0.06754258028362896</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0842348063211074</v>
+      </c>
+      <c r="E4">
+        <v>0.02870419668199084</v>
+      </c>
+      <c r="F4">
+        <v>-0.03239957100615744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1456164759619557</v>
+        <v>0.1590695656593746</v>
       </c>
       <c r="C6">
-        <v>0.02630727157939214</v>
+        <v>-0.02658217681723815</v>
       </c>
       <c r="D6">
-        <v>-0.02235378896548239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.023855096766465</v>
+      </c>
+      <c r="E6">
+        <v>0.01057197507840126</v>
+      </c>
+      <c r="F6">
+        <v>-0.04282028876060403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06606712142652761</v>
+        <v>0.0635136975361935</v>
       </c>
       <c r="C7">
-        <v>0.003795795295919392</v>
+        <v>0.001665435975932682</v>
       </c>
       <c r="D7">
-        <v>0.03648010464824299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0524915814756414</v>
+      </c>
+      <c r="E7">
+        <v>0.01212881762055012</v>
+      </c>
+      <c r="F7">
+        <v>-0.04760800172585669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06492460699607226</v>
+        <v>0.05759757096018598</v>
       </c>
       <c r="C8">
-        <v>-0.009807650476089226</v>
+        <v>0.01327297957386865</v>
       </c>
       <c r="D8">
-        <v>0.01735177932606151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03242795487670812</v>
+      </c>
+      <c r="E8">
+        <v>0.01795197485101664</v>
+      </c>
+      <c r="F8">
+        <v>0.02674048689766384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07688069694385374</v>
+        <v>0.07092568475653956</v>
       </c>
       <c r="C9">
-        <v>0.01812556620053998</v>
+        <v>-0.01021642876664454</v>
       </c>
       <c r="D9">
-        <v>0.06723296078952556</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08703883398759533</v>
+      </c>
+      <c r="E9">
+        <v>0.02325688996508972</v>
+      </c>
+      <c r="F9">
+        <v>-0.04785991845475806</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08416236345556102</v>
+        <v>0.09145290782324596</v>
       </c>
       <c r="C10">
-        <v>0.008961969703306543</v>
+        <v>-0.02097089894844511</v>
       </c>
       <c r="D10">
-        <v>-0.1692797921734968</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1642761800920092</v>
+      </c>
+      <c r="E10">
+        <v>-0.03288191670051696</v>
+      </c>
+      <c r="F10">
+        <v>0.05517405349817594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09385664339533581</v>
+        <v>0.08809030974055689</v>
       </c>
       <c r="C11">
-        <v>0.01863829550706126</v>
+        <v>-0.01030099695720896</v>
       </c>
       <c r="D11">
-        <v>0.0980843895577885</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1171348236221949</v>
+      </c>
+      <c r="E11">
+        <v>0.04577230742272761</v>
+      </c>
+      <c r="F11">
+        <v>-0.0231934043247837</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.1008832092523365</v>
+        <v>0.09206633443096744</v>
       </c>
       <c r="C12">
-        <v>0.01709772112883126</v>
+        <v>-0.007694995039852804</v>
       </c>
       <c r="D12">
-        <v>0.0976613876381673</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1317235448981821</v>
+      </c>
+      <c r="E12">
+        <v>0.04572369115361752</v>
+      </c>
+      <c r="F12">
+        <v>-0.02983814224909635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04326801712993923</v>
+        <v>0.04156444524260554</v>
       </c>
       <c r="C13">
-        <v>0.006446218155086216</v>
+        <v>-0.002393610312336922</v>
       </c>
       <c r="D13">
-        <v>0.03311008397498569</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05329442409157385</v>
+      </c>
+      <c r="E13">
+        <v>-0.004470445630065689</v>
+      </c>
+      <c r="F13">
+        <v>-0.002937052544859293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02227509126829253</v>
+        <v>0.02387482198634681</v>
       </c>
       <c r="C14">
-        <v>0.0154455803230476</v>
+        <v>-0.01376333884069889</v>
       </c>
       <c r="D14">
-        <v>0.02462163817419761</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03297574990789522</v>
+      </c>
+      <c r="E14">
+        <v>0.01848071860236466</v>
+      </c>
+      <c r="F14">
+        <v>-0.01395275005104051</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03602647652549763</v>
+        <v>0.03290143064000565</v>
       </c>
       <c r="C15">
-        <v>0.008235067972518013</v>
+        <v>-0.004624275616085437</v>
       </c>
       <c r="D15">
-        <v>0.02539729683251327</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04532197519606753</v>
+      </c>
+      <c r="E15">
+        <v>0.006105535701690041</v>
+      </c>
+      <c r="F15">
+        <v>-0.02477551886993629</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.08161057680882174</v>
+        <v>0.07425870320635976</v>
       </c>
       <c r="C16">
-        <v>0.009820513889158923</v>
+        <v>-0.0008686648905182216</v>
       </c>
       <c r="D16">
-        <v>0.09959236622269432</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1276276311476659</v>
+      </c>
+      <c r="E16">
+        <v>0.06008481477057036</v>
+      </c>
+      <c r="F16">
+        <v>-0.02716997243522577</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0006916110698068494</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0001749623331391378</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001230140201940131</v>
+      </c>
+      <c r="E17">
+        <v>0.000690053054433277</v>
+      </c>
+      <c r="F17">
+        <v>0.001237363284888076</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.007080149915752927</v>
+        <v>0.03624597826402041</v>
       </c>
       <c r="C18">
-        <v>-0.001436981511442154</v>
+        <v>0.003000278205923059</v>
       </c>
       <c r="D18">
-        <v>0.008792022893789501</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.0162721636956443</v>
+      </c>
+      <c r="E18">
+        <v>-0.008387787421587993</v>
+      </c>
+      <c r="F18">
+        <v>0.009558512923164749</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06333548020540086</v>
+        <v>0.06169146398216253</v>
       </c>
       <c r="C20">
-        <v>0.007558570867012841</v>
+        <v>5.662120047793545e-05</v>
       </c>
       <c r="D20">
-        <v>0.04549120753662439</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07840706783698007</v>
+      </c>
+      <c r="E20">
+        <v>0.05625425049728786</v>
+      </c>
+      <c r="F20">
+        <v>-0.02644667105902232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04346549923395131</v>
+        <v>0.04062452923465806</v>
       </c>
       <c r="C21">
-        <v>0.01065901011366923</v>
+        <v>-0.006375919553676174</v>
       </c>
       <c r="D21">
-        <v>0.0136282694935776</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03824191786493115</v>
+      </c>
+      <c r="E21">
+        <v>-0.001393366392161</v>
+      </c>
+      <c r="F21">
+        <v>0.02397493342229133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04144817133136727</v>
+        <v>0.04304130047500432</v>
       </c>
       <c r="C22">
-        <v>0.000529843304356603</v>
+        <v>-0.0002020289647350831</v>
       </c>
       <c r="D22">
-        <v>-0.01179007602810263</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.005052284342052884</v>
+      </c>
+      <c r="E22">
+        <v>0.03801382038562595</v>
+      </c>
+      <c r="F22">
+        <v>0.03640464962979686</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04140988473865548</v>
+        <v>0.04301702595358179</v>
       </c>
       <c r="C23">
-        <v>0.000520764163506226</v>
+        <v>-0.0001935185021081941</v>
       </c>
       <c r="D23">
-        <v>-0.0117650280281503</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.005067902395091497</v>
+      </c>
+      <c r="E23">
+        <v>0.03819728487608615</v>
+      </c>
+      <c r="F23">
+        <v>0.03636721100752392</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08447217894507314</v>
+        <v>0.08000917826724907</v>
       </c>
       <c r="C24">
-        <v>0.01014710309622553</v>
+        <v>-0.00154466004783991</v>
       </c>
       <c r="D24">
-        <v>0.1058664505067129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.120611820891101</v>
+      </c>
+      <c r="E24">
+        <v>0.04836164983271647</v>
+      </c>
+      <c r="F24">
+        <v>-0.0281653133045385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.09118278743780475</v>
+        <v>0.08527627178489008</v>
       </c>
       <c r="C25">
-        <v>0.01247152386308262</v>
+        <v>-0.00425795159811548</v>
       </c>
       <c r="D25">
-        <v>0.08955994195695859</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1096589229581935</v>
+      </c>
+      <c r="E25">
+        <v>0.03190038767852974</v>
+      </c>
+      <c r="F25">
+        <v>-0.02785416712403052</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05882132306924912</v>
+        <v>0.05889284405195203</v>
       </c>
       <c r="C26">
-        <v>0.01860035172708146</v>
+        <v>-0.01436325986729498</v>
       </c>
       <c r="D26">
-        <v>0.01344723951688425</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04106420187535891</v>
+      </c>
+      <c r="E26">
+        <v>0.02825809629266265</v>
+      </c>
+      <c r="F26">
+        <v>0.007234466207521487</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1318394509292264</v>
+        <v>0.1423848160799723</v>
       </c>
       <c r="C28">
-        <v>0.005895609911933586</v>
+        <v>-0.0224178967932584</v>
       </c>
       <c r="D28">
-        <v>-0.2805517262598047</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.261189275551901</v>
+      </c>
+      <c r="E28">
+        <v>-0.06733569208395822</v>
+      </c>
+      <c r="F28">
+        <v>-0.007754805082615048</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02748391252128663</v>
+        <v>0.02851571785570352</v>
       </c>
       <c r="C29">
-        <v>0.01018825965232912</v>
+        <v>-0.008658953310064678</v>
       </c>
       <c r="D29">
-        <v>0.01938757854490199</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03124047158972077</v>
+      </c>
+      <c r="E29">
+        <v>0.0136358666263972</v>
+      </c>
+      <c r="F29">
+        <v>0.01282196186407488</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.07026873362410904</v>
+        <v>0.05850738959752089</v>
       </c>
       <c r="C30">
-        <v>0.01050355607093782</v>
+        <v>-0.002417572047744288</v>
       </c>
       <c r="D30">
-        <v>0.07357674842174738</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08962512511864694</v>
+      </c>
+      <c r="E30">
+        <v>0.01548909406687363</v>
+      </c>
+      <c r="F30">
+        <v>-0.07791795350705012</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05179601533492136</v>
+        <v>0.05108714101806477</v>
       </c>
       <c r="C31">
-        <v>0.0169316218953754</v>
+        <v>-0.01548119365893152</v>
       </c>
       <c r="D31">
-        <v>0.02267543658945975</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02486641011360919</v>
+      </c>
+      <c r="E31">
+        <v>0.02868084381178519</v>
+      </c>
+      <c r="F31">
+        <v>0.001130209998450758</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04499413251187516</v>
+        <v>0.05113247937110092</v>
       </c>
       <c r="C32">
-        <v>0.002094444994359982</v>
+        <v>0.001923298969534319</v>
       </c>
       <c r="D32">
-        <v>0.02068729604371932</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03650791837195613</v>
+      </c>
+      <c r="E32">
+        <v>0.03429472799560962</v>
+      </c>
+      <c r="F32">
+        <v>-0.00346863023468603</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09535169948003412</v>
+        <v>0.08858195777811595</v>
       </c>
       <c r="C33">
-        <v>0.01478544904177556</v>
+        <v>-0.006529842733906975</v>
       </c>
       <c r="D33">
-        <v>0.08072631770277959</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1016931560097127</v>
+      </c>
+      <c r="E33">
+        <v>0.0429932760245361</v>
+      </c>
+      <c r="F33">
+        <v>-0.03818094838448675</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07553256745083461</v>
+        <v>0.06790378183188278</v>
       </c>
       <c r="C34">
-        <v>0.01673183809573669</v>
+        <v>-0.009997251912790009</v>
       </c>
       <c r="D34">
-        <v>0.09015882932230038</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1099201112262536</v>
+      </c>
+      <c r="E34">
+        <v>0.03420804536692761</v>
+      </c>
+      <c r="F34">
+        <v>-0.03392747426905375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02346078338344201</v>
+        <v>0.02528504476331465</v>
       </c>
       <c r="C35">
-        <v>0.002692003457471278</v>
+        <v>-0.002522683817463874</v>
       </c>
       <c r="D35">
-        <v>0.0048220480049172</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01149249548710983</v>
+      </c>
+      <c r="E35">
+        <v>0.01193223501328779</v>
+      </c>
+      <c r="F35">
+        <v>-0.001206762987302731</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02248434044771325</v>
+        <v>0.02752641698328461</v>
       </c>
       <c r="C36">
-        <v>0.009173770665189351</v>
+        <v>-0.006781748733931686</v>
       </c>
       <c r="D36">
-        <v>0.02922763823989805</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03998087427633423</v>
+      </c>
+      <c r="E36">
+        <v>0.01666594522811026</v>
+      </c>
+      <c r="F36">
+        <v>-0.01571197547642584</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0004363791427208913</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0006184521160528694</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002301186331983259</v>
+      </c>
+      <c r="E37">
+        <v>-0.001158270823918144</v>
+      </c>
+      <c r="F37">
+        <v>-3.219250517915622e-05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0003913742740150405</v>
+        <v>0.0003516491999279664</v>
       </c>
       <c r="C38">
-        <v>7.09210487910854e-05</v>
+        <v>-0.0001241848356174445</v>
       </c>
       <c r="D38">
-        <v>-0.001955325491629416</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.001380427872250081</v>
+      </c>
+      <c r="E38">
+        <v>-0.0008976654553753058</v>
+      </c>
+      <c r="F38">
+        <v>-0.0003570688443262078</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.11931693257839</v>
+        <v>0.1040920068288887</v>
       </c>
       <c r="C39">
-        <v>0.02618087050178153</v>
+        <v>-0.01542515333788004</v>
       </c>
       <c r="D39">
-        <v>0.1415746384941396</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.154762698125549</v>
+      </c>
+      <c r="E39">
+        <v>0.05919662914105731</v>
+      </c>
+      <c r="F39">
+        <v>-0.03023411169045699</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03556046969661211</v>
+        <v>0.04139381467610832</v>
       </c>
       <c r="C40">
-        <v>0.01039259317744878</v>
+        <v>-0.007105239620170884</v>
       </c>
       <c r="D40">
-        <v>-0.003210599769589288</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03126283056639797</v>
+      </c>
+      <c r="E40">
+        <v>0.001930590907342556</v>
+      </c>
+      <c r="F40">
+        <v>0.01632197377792293</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02490319559050104</v>
+        <v>0.02781900953897675</v>
       </c>
       <c r="C41">
-        <v>0.007661427655091133</v>
+        <v>-0.006825126985897454</v>
       </c>
       <c r="D41">
-        <v>0.006143521698568494</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01130483581617655</v>
+      </c>
+      <c r="E41">
+        <v>0.01258106578054057</v>
+      </c>
+      <c r="F41">
+        <v>0.006055647297048485</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04028266319658051</v>
+        <v>0.0405779957985283</v>
       </c>
       <c r="C43">
-        <v>0.008684576344326704</v>
+        <v>-0.007021282515359458</v>
       </c>
       <c r="D43">
-        <v>0.009030143369445472</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01886702261109182</v>
+      </c>
+      <c r="E43">
+        <v>0.02529178723676929</v>
+      </c>
+      <c r="F43">
+        <v>0.01206700357513343</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.08042542775258311</v>
+        <v>0.07909753073056136</v>
       </c>
       <c r="C44">
-        <v>0.02817920135673602</v>
+        <v>-0.01911222684085193</v>
       </c>
       <c r="D44">
-        <v>0.07302574200190139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09771530640507763</v>
+      </c>
+      <c r="E44">
+        <v>0.06127686093061072</v>
+      </c>
+      <c r="F44">
+        <v>-0.1576773559601397</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.01837575925387676</v>
+        <v>0.02303283172738522</v>
       </c>
       <c r="C46">
-        <v>0.00411482725592494</v>
+        <v>-0.003193638563775361</v>
       </c>
       <c r="D46">
-        <v>-0.0002912268157141531</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01365537327417174</v>
+      </c>
+      <c r="E46">
+        <v>0.02611333233845229</v>
+      </c>
+      <c r="F46">
+        <v>0.00533925299592001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05179776895839294</v>
+        <v>0.05279075448728458</v>
       </c>
       <c r="C47">
-        <v>0.004630147471173175</v>
+        <v>-0.00359101779330788</v>
       </c>
       <c r="D47">
-        <v>0.002067193597035661</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01235470113254021</v>
+      </c>
+      <c r="E47">
+        <v>0.02386676909326849</v>
+      </c>
+      <c r="F47">
+        <v>0.03157533870421014</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04633273424861208</v>
+        <v>0.05034591558405656</v>
       </c>
       <c r="C48">
-        <v>0.00624910524609082</v>
+        <v>-0.002160544817808147</v>
       </c>
       <c r="D48">
-        <v>0.03579789102622451</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05073914163344431</v>
+      </c>
+      <c r="E48">
+        <v>-0.004671997738565794</v>
+      </c>
+      <c r="F48">
+        <v>-0.009888083525043554</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2022523760576971</v>
+        <v>0.200059423263574</v>
       </c>
       <c r="C49">
-        <v>0.01859911278019245</v>
+        <v>-0.01887263587897406</v>
       </c>
       <c r="D49">
-        <v>-0.006631966180195173</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007168082336973218</v>
+      </c>
+      <c r="E49">
+        <v>0.03004051351907952</v>
+      </c>
+      <c r="F49">
+        <v>-0.03788951013302537</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.0512766484840987</v>
+        <v>0.05135061420024332</v>
       </c>
       <c r="C50">
-        <v>0.01313249950846216</v>
+        <v>-0.0111843225831788</v>
       </c>
       <c r="D50">
-        <v>0.02130940276976001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02445934714634228</v>
+      </c>
+      <c r="E50">
+        <v>0.03016614252120628</v>
+      </c>
+      <c r="F50">
+        <v>-0.009597366065552098</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1565284840359445</v>
+        <v>0.1486440872069257</v>
       </c>
       <c r="C52">
-        <v>0.01888585238365475</v>
+        <v>-0.01726362810527667</v>
       </c>
       <c r="D52">
-        <v>0.05770755947386427</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04230710223755358</v>
+      </c>
+      <c r="E52">
+        <v>0.02099115575301898</v>
+      </c>
+      <c r="F52">
+        <v>-0.04346809321755582</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1709617994519141</v>
+        <v>0.1712872078291413</v>
       </c>
       <c r="C53">
-        <v>0.01773042974322061</v>
+        <v>-0.01978830927497487</v>
       </c>
       <c r="D53">
-        <v>0.03021077026738926</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.004957733187698327</v>
+      </c>
+      <c r="E53">
+        <v>0.02922767897056876</v>
+      </c>
+      <c r="F53">
+        <v>-0.07499402053173923</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.02103089300354186</v>
+        <v>0.02032368906747638</v>
       </c>
       <c r="C54">
-        <v>0.01295447274212802</v>
+        <v>-0.01119033041501473</v>
       </c>
       <c r="D54">
-        <v>0.02406846081442575</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03451864312602419</v>
+      </c>
+      <c r="E54">
+        <v>0.02225439032560366</v>
+      </c>
+      <c r="F54">
+        <v>0.005379770927155504</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1163815279297439</v>
+        <v>0.1146646185439709</v>
       </c>
       <c r="C55">
-        <v>0.0163423085934366</v>
+        <v>-0.01746219891807585</v>
       </c>
       <c r="D55">
-        <v>0.02500824280221632</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.007470635340641693</v>
+      </c>
+      <c r="E55">
+        <v>0.02429238205452236</v>
+      </c>
+      <c r="F55">
+        <v>-0.04778888181025324</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1782906722121188</v>
+        <v>0.1768251485799721</v>
       </c>
       <c r="C56">
-        <v>0.01570863057630668</v>
+        <v>-0.01759557067243034</v>
       </c>
       <c r="D56">
-        <v>0.0171007301235671</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.001973487027884303</v>
+      </c>
+      <c r="E56">
+        <v>0.03389765711691178</v>
+      </c>
+      <c r="F56">
+        <v>-0.05275939459002111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04535916307663094</v>
+        <v>0.04500470335179264</v>
       </c>
       <c r="C58">
-        <v>0.006890114443578398</v>
+        <v>0.0004255173828506765</v>
       </c>
       <c r="D58">
-        <v>0.05001346050869999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07167892235731352</v>
+      </c>
+      <c r="E58">
+        <v>0.03242499284985136</v>
+      </c>
+      <c r="F58">
+        <v>0.03870942951884519</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1645571848563191</v>
+        <v>0.1680853393829176</v>
       </c>
       <c r="C59">
-        <v>0.007432769002602468</v>
+        <v>-0.02261051834419177</v>
       </c>
       <c r="D59">
-        <v>-0.2247798886566248</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2171046695237129</v>
+      </c>
+      <c r="E59">
+        <v>-0.0455614933702562</v>
+      </c>
+      <c r="F59">
+        <v>0.03611929762077965</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.240317086192798</v>
+        <v>0.2317768193918197</v>
       </c>
       <c r="C60">
-        <v>-0.0005893859157646011</v>
+        <v>0.002251107212087359</v>
       </c>
       <c r="D60">
-        <v>0.06001845993073079</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04140240903713676</v>
+      </c>
+      <c r="E60">
+        <v>0.008889618337183618</v>
+      </c>
+      <c r="F60">
+        <v>0.005146476534802358</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09271054596227593</v>
+        <v>0.08006530435696395</v>
       </c>
       <c r="C61">
-        <v>0.01931389814009843</v>
+        <v>-0.01106086817361688</v>
       </c>
       <c r="D61">
-        <v>0.09819928489071615</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1179149201861998</v>
+      </c>
+      <c r="E61">
+        <v>0.03893539594387582</v>
+      </c>
+      <c r="F61">
+        <v>-0.01413168253124012</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1727695965945857</v>
+        <v>0.1696246490321147</v>
       </c>
       <c r="C62">
-        <v>0.01948911230429091</v>
+        <v>-0.02067309024358322</v>
       </c>
       <c r="D62">
-        <v>0.01457474683327484</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005246682273005197</v>
+      </c>
+      <c r="E62">
+        <v>0.03364382702492939</v>
+      </c>
+      <c r="F62">
+        <v>-0.03625871582499559</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04688275144333538</v>
+        <v>0.04553866226357071</v>
       </c>
       <c r="C63">
-        <v>0.006607380013248789</v>
+        <v>-0.001602511775233193</v>
       </c>
       <c r="D63">
-        <v>0.04203671327830043</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0592282683212632</v>
+      </c>
+      <c r="E63">
+        <v>0.02324225690879837</v>
+      </c>
+      <c r="F63">
+        <v>-0.003408488415570986</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1072768065707867</v>
+        <v>0.110565410763032</v>
       </c>
       <c r="C64">
-        <v>0.01517194031032856</v>
+        <v>-0.01139603701138005</v>
       </c>
       <c r="D64">
-        <v>0.0244960703851746</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04361844500470026</v>
+      </c>
+      <c r="E64">
+        <v>0.02268239721870202</v>
+      </c>
+      <c r="F64">
+        <v>-0.02466815818855603</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1383217194776298</v>
+        <v>0.150687192105907</v>
       </c>
       <c r="C65">
-        <v>0.03147211554042555</v>
+        <v>-0.03408766460652603</v>
       </c>
       <c r="D65">
-        <v>-0.04431392874223615</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04412845039647238</v>
+      </c>
+      <c r="E65">
+        <v>0.006479457992081827</v>
+      </c>
+      <c r="F65">
+        <v>-0.03765652479538597</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1451616448746543</v>
+        <v>0.1236389472186415</v>
       </c>
       <c r="C66">
-        <v>0.02326365995584531</v>
+        <v>-0.0133280690559053</v>
       </c>
       <c r="D66">
-        <v>0.1230960614732686</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1429113678180823</v>
+      </c>
+      <c r="E66">
+        <v>0.06511216405566771</v>
+      </c>
+      <c r="F66">
+        <v>-0.03453068057434518</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06193460805222518</v>
+        <v>0.05759435207178303</v>
       </c>
       <c r="C67">
-        <v>0.006213612726492931</v>
+        <v>-0.002837551660001256</v>
       </c>
       <c r="D67">
-        <v>0.05463619576626978</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05536490182319526</v>
+      </c>
+      <c r="E67">
+        <v>0.01652069952764547</v>
+      </c>
+      <c r="F67">
+        <v>0.03132148139850167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1019266280852243</v>
+        <v>0.1166247809701398</v>
       </c>
       <c r="C68">
-        <v>0.01580811318703722</v>
+        <v>-0.03316105241425409</v>
       </c>
       <c r="D68">
-        <v>-0.2750842729984762</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2611226773374266</v>
+      </c>
+      <c r="E68">
+        <v>-0.08730486953312624</v>
+      </c>
+      <c r="F68">
+        <v>-0.002627339752168979</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04148077882950549</v>
+        <v>0.03919969758033738</v>
       </c>
       <c r="C69">
-        <v>0.001094889938706094</v>
+        <v>-0.001183991809613386</v>
       </c>
       <c r="D69">
-        <v>0.01176093022651073</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008811242954139984</v>
+      </c>
+      <c r="E69">
+        <v>0.02438617910734442</v>
+      </c>
+      <c r="F69">
+        <v>-0.000590574353326229</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06531589704591945</v>
+        <v>0.06670878550856371</v>
       </c>
       <c r="C70">
-        <v>-0.02334140655200025</v>
+        <v>0.02744532471724854</v>
       </c>
       <c r="D70">
-        <v>-0.02441033976924573</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02498335888039452</v>
+      </c>
+      <c r="E70">
+        <v>-0.03186494925772139</v>
+      </c>
+      <c r="F70">
+        <v>0.1867625461694556</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1192139882196785</v>
+        <v>0.1363683784436676</v>
       </c>
       <c r="C71">
-        <v>0.01946632039193531</v>
+        <v>-0.03747807229334963</v>
       </c>
       <c r="D71">
-        <v>-0.2933252024327482</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2723864409911257</v>
+      </c>
+      <c r="E71">
+        <v>-0.09752646537823273</v>
+      </c>
+      <c r="F71">
+        <v>-0.008263140929042203</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1374203476793827</v>
+        <v>0.1426284480074597</v>
       </c>
       <c r="C72">
-        <v>0.02646480405734947</v>
+        <v>-0.02716573209485816</v>
       </c>
       <c r="D72">
-        <v>0.006379168012819477</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.003304505468738075</v>
+      </c>
+      <c r="E72">
+        <v>0.03690976610220956</v>
+      </c>
+      <c r="F72">
+        <v>-0.03191736576669579</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2047118199001621</v>
+        <v>0.203879068038225</v>
       </c>
       <c r="C73">
-        <v>0.01427545954458726</v>
+        <v>-0.01289161748175992</v>
       </c>
       <c r="D73">
-        <v>0.03027401136038874</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.0168625323686545</v>
+      </c>
+      <c r="E73">
+        <v>0.06229099369409254</v>
+      </c>
+      <c r="F73">
+        <v>-0.03840579548068543</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.0912955784906643</v>
+        <v>0.09477377995850035</v>
       </c>
       <c r="C74">
-        <v>0.01257527165826865</v>
+        <v>-0.01337372569765464</v>
       </c>
       <c r="D74">
-        <v>0.0319614222370074</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01657549491798045</v>
+      </c>
+      <c r="E74">
+        <v>0.04387686004481733</v>
+      </c>
+      <c r="F74">
+        <v>-0.05825662348573037</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1348785951091888</v>
+        <v>0.1275156543799249</v>
       </c>
       <c r="C75">
-        <v>0.02860665001699368</v>
+        <v>-0.02827869851031816</v>
       </c>
       <c r="D75">
-        <v>0.04357187179655093</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03019491558609472</v>
+      </c>
+      <c r="E75">
+        <v>0.05796607080341726</v>
+      </c>
+      <c r="F75">
+        <v>-0.02309976061007189</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07955076707783244</v>
+        <v>0.08891847661035705</v>
       </c>
       <c r="C77">
-        <v>0.01672749974652382</v>
+        <v>-0.00805208107081133</v>
       </c>
       <c r="D77">
-        <v>0.09476952601021871</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.112664008255285</v>
+      </c>
+      <c r="E77">
+        <v>0.04157668849441264</v>
+      </c>
+      <c r="F77">
+        <v>-0.03478318382443989</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1043723600086884</v>
+        <v>0.1003140598545464</v>
       </c>
       <c r="C78">
-        <v>0.04844874582947619</v>
+        <v>-0.03933488829168724</v>
       </c>
       <c r="D78">
-        <v>0.098036778461027</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1143221076446203</v>
+      </c>
+      <c r="E78">
+        <v>0.07430779543390188</v>
+      </c>
+      <c r="F78">
+        <v>-0.05049801110680979</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1658328401332108</v>
+        <v>0.1635505669900872</v>
       </c>
       <c r="C79">
-        <v>0.02291916695945158</v>
+        <v>-0.02298031180868216</v>
       </c>
       <c r="D79">
-        <v>0.01812975472665468</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01480422387676069</v>
+      </c>
+      <c r="E79">
+        <v>0.04633391677896206</v>
+      </c>
+      <c r="F79">
+        <v>-0.01250898566759079</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08886664533694931</v>
+        <v>0.08201547950884974</v>
       </c>
       <c r="C80">
-        <v>0.002198957984608524</v>
+        <v>0.001054239145697152</v>
       </c>
       <c r="D80">
-        <v>0.04899181094160083</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05698355035853574</v>
+      </c>
+      <c r="E80">
+        <v>0.03583717741938355</v>
+      </c>
+      <c r="F80">
+        <v>0.02229150431317928</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1214410215802487</v>
+        <v>0.1187835812801502</v>
       </c>
       <c r="C81">
-        <v>0.03034617632401391</v>
+        <v>-0.03186179584753485</v>
       </c>
       <c r="D81">
-        <v>0.04561407019812828</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01557740126196772</v>
+      </c>
+      <c r="E81">
+        <v>0.0573198193711565</v>
+      </c>
+      <c r="F81">
+        <v>-0.01867991183077714</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1623355072820618</v>
+        <v>0.1651821796264842</v>
       </c>
       <c r="C82">
-        <v>0.02283920868633081</v>
+        <v>-0.02487012808439508</v>
       </c>
       <c r="D82">
-        <v>0.02898309682267464</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.003912360609477574</v>
+      </c>
+      <c r="E82">
+        <v>0.02652337522804713</v>
+      </c>
+      <c r="F82">
+        <v>-0.08202853593556216</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.07045384675329967</v>
+        <v>0.05863896232911912</v>
       </c>
       <c r="C83">
-        <v>0.006834046314502213</v>
+        <v>-0.002752913227747049</v>
       </c>
       <c r="D83">
-        <v>0.02796541657290243</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05051951362693312</v>
+      </c>
+      <c r="E83">
+        <v>0.003013076739409671</v>
+      </c>
+      <c r="F83">
+        <v>0.02956203375621326</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.0678559157378979</v>
+        <v>0.05960703504812558</v>
       </c>
       <c r="C84">
-        <v>0.01540039128187794</v>
+        <v>-0.01127967895265573</v>
       </c>
       <c r="D84">
-        <v>0.05908517917502581</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06288032418520786</v>
+      </c>
+      <c r="E84">
+        <v>0.007238048858503152</v>
+      </c>
+      <c r="F84">
+        <v>-0.005692379584919608</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1385972995545721</v>
+        <v>0.1355544009697231</v>
       </c>
       <c r="C85">
-        <v>0.02765429157756714</v>
+        <v>-0.02826437992363758</v>
       </c>
       <c r="D85">
-        <v>0.02383631435572154</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009241361418159353</v>
+      </c>
+      <c r="E85">
+        <v>0.03658018134574829</v>
+      </c>
+      <c r="F85">
+        <v>-0.04827152296259363</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1008687597353485</v>
+        <v>0.09436607947035407</v>
       </c>
       <c r="C86">
-        <v>-0.001204878568997144</v>
+        <v>0.005671240061899954</v>
       </c>
       <c r="D86">
-        <v>-0.0362348783177139</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04331760856252942</v>
+      </c>
+      <c r="E86">
+        <v>0.2300809970927446</v>
+      </c>
+      <c r="F86">
+        <v>0.9029864684913521</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09947634332921902</v>
+        <v>0.09466444891499565</v>
       </c>
       <c r="C87">
-        <v>0.03052690718399716</v>
+        <v>-0.01924651658961091</v>
       </c>
       <c r="D87">
-        <v>0.05349675896114083</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09397164461609782</v>
+      </c>
+      <c r="E87">
+        <v>-0.05367670701212147</v>
+      </c>
+      <c r="F87">
+        <v>-0.04589098076017255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05927803050954812</v>
+        <v>0.06046596951532509</v>
       </c>
       <c r="C88">
-        <v>0.006236032841804361</v>
+        <v>-0.002099167229012211</v>
       </c>
       <c r="D88">
-        <v>0.04653213660164194</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04989845340403604</v>
+      </c>
+      <c r="E88">
+        <v>0.02440546228489341</v>
+      </c>
+      <c r="F88">
+        <v>-0.01404650584091383</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1171398232421827</v>
+        <v>0.1291530786077112</v>
       </c>
       <c r="C89">
-        <v>-0.001891685879905147</v>
+        <v>-0.01356863387918034</v>
       </c>
       <c r="D89">
-        <v>-0.2758964225373784</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2454125452580409</v>
+      </c>
+      <c r="E89">
+        <v>-0.08921349878781226</v>
+      </c>
+      <c r="F89">
+        <v>0.009613080578238507</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1302985331433333</v>
+        <v>0.1512615121676229</v>
       </c>
       <c r="C90">
-        <v>0.01671944070713145</v>
+        <v>-0.03429586610938118</v>
       </c>
       <c r="D90">
-        <v>-0.2930468336198263</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2708594557372231</v>
+      </c>
+      <c r="E90">
+        <v>-0.1138691209783242</v>
+      </c>
+      <c r="F90">
+        <v>0.008605171748911478</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1207685337370355</v>
+        <v>0.1213507393906196</v>
       </c>
       <c r="C91">
-        <v>0.01729014665873682</v>
+        <v>-0.0199988691648916</v>
       </c>
       <c r="D91">
-        <v>0.003874427660276526</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01545712531029533</v>
+      </c>
+      <c r="E91">
+        <v>0.05554353050605728</v>
+      </c>
+      <c r="F91">
+        <v>8.493974405118759e-07</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1420695358461206</v>
+        <v>0.1477104233333546</v>
       </c>
       <c r="C92">
-        <v>0.004899957174660252</v>
+        <v>-0.02485367032502778</v>
       </c>
       <c r="D92">
-        <v>-0.3161710616080777</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2910326054840153</v>
+      </c>
+      <c r="E92">
+        <v>-0.1016412567555923</v>
+      </c>
+      <c r="F92">
+        <v>0.01293371976173622</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1358999638603376</v>
+        <v>0.15129642349764</v>
       </c>
       <c r="C93">
-        <v>0.01208472755943887</v>
+        <v>-0.02931946074349583</v>
       </c>
       <c r="D93">
-        <v>-0.2766828089726843</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2675700622942471</v>
+      </c>
+      <c r="E93">
+        <v>-0.07809167570966066</v>
+      </c>
+      <c r="F93">
+        <v>-0.002566834135422031</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1348882090420463</v>
+        <v>0.1285299389046203</v>
       </c>
       <c r="C94">
-        <v>0.02586592545372146</v>
+        <v>-0.02469646234603618</v>
       </c>
       <c r="D94">
-        <v>0.06045870457322373</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04115093617570033</v>
+      </c>
+      <c r="E94">
+        <v>0.05729019590920213</v>
+      </c>
+      <c r="F94">
+        <v>-0.03653089343856217</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.128285642635789</v>
+        <v>0.1266594509121605</v>
       </c>
       <c r="C95">
-        <v>0.01145927997922407</v>
+        <v>-0.003200996239811023</v>
       </c>
       <c r="D95">
-        <v>0.07155382048397962</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09508627977541137</v>
+      </c>
+      <c r="E95">
+        <v>0.05022105632758261</v>
+      </c>
+      <c r="F95">
+        <v>0.007775907343555822</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1118635054163435</v>
+        <v>0.1093959634222097</v>
       </c>
       <c r="C96">
-        <v>-0.9882686260176741</v>
+        <v>0.9870604767008333</v>
       </c>
       <c r="D96">
-        <v>0.01244477470404296</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05187310252003533</v>
+      </c>
+      <c r="E96">
+        <v>0.05267369037403896</v>
+      </c>
+      <c r="F96">
+        <v>-0.04279085318014916</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1912189101764123</v>
+        <v>0.1910022399233871</v>
       </c>
       <c r="C97">
-        <v>-0.00689640777208226</v>
+        <v>0.006948540866856459</v>
       </c>
       <c r="D97">
-        <v>-0.03758764969928369</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01970352603172782</v>
+      </c>
+      <c r="E97">
+        <v>0.02201558609464376</v>
+      </c>
+      <c r="F97">
+        <v>0.09787662570130247</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1946343466503004</v>
+        <v>0.2059010175452524</v>
       </c>
       <c r="C98">
-        <v>0.01051611067891093</v>
+        <v>-0.007147037062129165</v>
       </c>
       <c r="D98">
-        <v>-0.001664840684230875</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01299371091469533</v>
+      </c>
+      <c r="E98">
+        <v>-0.07763206093090635</v>
+      </c>
+      <c r="F98">
+        <v>0.09289964411256584</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05445844456293882</v>
+        <v>0.05483550366208482</v>
       </c>
       <c r="C99">
-        <v>-0.001788214166948104</v>
+        <v>0.004499027208625625</v>
       </c>
       <c r="D99">
-        <v>0.02069049896558161</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03921451053786305</v>
+      </c>
+      <c r="E99">
+        <v>0.02197294829570543</v>
+      </c>
+      <c r="F99">
+        <v>-0.003486846045690468</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.132117774649947</v>
+        <v>0.1282459137040548</v>
       </c>
       <c r="C100">
-        <v>-0.02820121023988</v>
+        <v>0.05335175728146382</v>
       </c>
       <c r="D100">
-        <v>0.3637800886111748</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3467344323133034</v>
+      </c>
+      <c r="E100">
+        <v>-0.8854387846729743</v>
+      </c>
+      <c r="F100">
+        <v>0.1582312256929187</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02732809303235255</v>
+        <v>0.02847696226825041</v>
       </c>
       <c r="C101">
-        <v>0.01013789752275858</v>
+        <v>-0.008683610099478198</v>
       </c>
       <c r="D101">
-        <v>0.01875843550471189</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.0308460251692818</v>
+      </c>
+      <c r="E101">
+        <v>0.0130420026744537</v>
+      </c>
+      <c r="F101">
+        <v>0.01404696414046506</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
